--- a/fig/ilities.xlsx
+++ b/fig/ilities.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morrisvanegas/git/manuscript_dissertation/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68380FC3-FB91-5844-A6F9-1DCF87351914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81E7BC-6322-1B4F-A528-603DE82C1DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40300" yWindow="1900" windowWidth="20580" windowHeight="17540" xr2:uid="{6A07EB4D-8B59-E245-A4FE-3505D617F0C0}"/>
+    <workbookView xWindow="39380" yWindow="1900" windowWidth="28800" windowHeight="17540" xr2:uid="{6A07EB4D-8B59-E245-A4FE-3505D617F0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$17</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Ility Name</t>
   </si>
@@ -155,15 +158,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">OMCI can use different patters, scanning areas, intensity. MOBI can really only change intensity. </t>
-  </si>
-  <si>
-    <t>OMCI interacts with one other system only. Pretty good. But MOBI can use aux input to interact.</t>
-  </si>
-  <si>
-    <t>MOBI can change its links easily. OMCI is pretty fixed. MOXI can use different papers</t>
-  </si>
-  <si>
     <t>to be operated by a non-technical user</t>
   </si>
   <si>
@@ -179,12 +173,6 @@
     <t>to be purchased with minimal investment</t>
   </si>
   <si>
-    <t>to remain in working condition without component replacement</t>
-  </si>
-  <si>
-    <t>to continue to function well when it (or its context) is change in size in order to meet user needs</t>
-  </si>
-  <si>
     <t>DeWeck Definition</t>
   </si>
   <si>
@@ -192,22 +180,42 @@
   </si>
   <si>
     <t>Interoperability</t>
+  </si>
+  <si>
+    <t>Pulse Oximeter</t>
+  </si>
+  <si>
+    <t>MOXI</t>
+  </si>
+  <si>
+    <t>MOBI</t>
+  </si>
+  <si>
+    <t>OMCI</t>
+  </si>
+  <si>
+    <t>to remain in working condition with minimal or no component replacement</t>
+  </si>
+  <si>
+    <t>OMCI can use different patters, scanning areas, intensity. MOBI can really only change intensity (but finger clips can't do that). MOXI can do software update pretty easily, but not hardware changes since it is based on a phone you don't have control over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMCI interacts with one other system only. Pretty good. But MOBI can use aux input to interact with any. </t>
+  </si>
+  <si>
+    <t>MOBI can change its links easily, but optode layouts are fixed so doesn't get 3 fully. OMCI is pretty fixed, and is the positioning of components matters a lot. MOXI can use different papers, and tries to account for offsetting it.</t>
+  </si>
+  <si>
+    <t>MOXI can change paper filters. MOBI can change intensity for lights and detector gain, but also sampling strategy. OMCI can change patterns for wide-field, position for RF, patterns for SLI, etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -234,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,14 +253,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -270,16 +275,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -593,23 +588,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8B7153-085D-ED40-8455-FEF486A6D992}">
-  <dimension ref="A1:H20"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.1640625" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" customWidth="1"/>
-    <col min="8" max="8" width="44" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -626,16 +622,28 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -648,8 +656,8 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -657,8 +665,20 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -669,14 +689,26 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -687,12 +719,12 @@
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>1</v>
@@ -703,12 +735,12 @@
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -719,14 +751,26 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -737,12 +781,12 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3"/>
       <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -753,15 +797,27 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f>G8</f>
         <v>to physically match the surface it is trying to measure</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>1</v>
@@ -772,15 +828,30 @@
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f>F9</f>
         <v>to accommodate new features after design</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>1</v>
@@ -789,20 +860,32 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="4" t="str">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="str">
         <f>F10</f>
         <v>to effectively interact with other systems</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -813,14 +896,26 @@
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -831,14 +926,26 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>1</v>
@@ -849,18 +956,30 @@
       <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f>F13</f>
         <v>to change the current set of specified system parameters</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -871,14 +990,26 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -889,15 +1020,27 @@
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f>G15</f>
         <v>to be transported to another location with minimal resources</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>1</v>
@@ -908,18 +1051,30 @@
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f>F16</f>
         <v>to change its component arrangement and links reversibly</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -932,24 +1087,22 @@
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <f>SUM(C2:C17)</f>
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K17" xr:uid="{1C8B7153-085D-ED40-8455-FEF486A6D992}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C2:C17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
